--- a/ApolloQA/Data/RatingManual/SC/OR00012.Deductible_StatedValueFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/OR00012.Deductible_StatedValueFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00012.Deductible_StatedValueFactors" sheetId="1" r:id="R137c7989599f4150"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00012.Deductible_StatedValueFactors" sheetId="1" r:id="Rc6fc6596a7da476b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -796,7 +796,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$1,000</x:v>
+        <x:v>$500</x:v>
       </x:c>
       <x:c t="str">
         <x:v>$13,001</x:v>
@@ -805,12 +805,12 @@
         <x:v>$14,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>$2,500</x:v>
+        <x:v>1.0100</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$1,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>$13,001</x:v>
@@ -819,6 +819,20 @@
         <x:v>$14,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$13,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$14,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>0.9950</x:v>
       </x:c>
     </x:row>
@@ -1566,7 +1580,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$5,000</x:v>
+        <x:v>$2,500</x:v>
       </x:c>
       <x:c t="str">
         <x:v>$22,001</x:v>
@@ -1575,6 +1589,20 @@
         <x:v>$23,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$22,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$23,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>0.9900</x:v>
       </x:c>
     </x:row>
@@ -2336,6 +2364,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$55,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$60,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>$250</x:v>
       </x:c>
       <x:c t="str">
@@ -3106,7 +3148,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$1,000</x:v>
+        <x:v>$500</x:v>
       </x:c>
       <x:c t="str">
         <x:v>$110,001</x:v>
@@ -3120,7 +3162,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$2,500</x:v>
+        <x:v>$1,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>$110,001</x:v>
@@ -3134,7 +3176,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$5,000</x:v>
+        <x:v>$2,500</x:v>
       </x:c>
       <x:c t="str">
         <x:v>$110,001</x:v>
@@ -3148,7 +3190,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$10,000</x:v>
+        <x:v>$5,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>$110,001</x:v>
@@ -3162,6 +3204,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$110,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$120,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>$250</x:v>
       </x:c>
       <x:c t="str">
@@ -3876,7 +3932,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$5,000</x:v>
+        <x:v>$2,500</x:v>
       </x:c>
       <x:c t="str">
         <x:v>$200,001</x:v>
@@ -3890,7 +3946,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$10,000</x:v>
+        <x:v>$5,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>$200,001</x:v>
@@ -3904,6 +3960,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$200,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$225,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>$250</x:v>
       </x:c>
       <x:c t="str">
@@ -4633,6 +4703,20 @@
     <x:row>
       <x:c t="str">
         <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>$425,001</x:v>
